--- a/data/tasupplemenationsos.xlsx
+++ b/data/tasupplemenationsos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB043452-6149-CE4E-B4BE-EDF3B6C24C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D35EE0-68C8-4649-BB3A-0B91156F7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1000" windowWidth="26980" windowHeight="16440" xr2:uid="{E284B18C-D04A-B84B-ACD8-66B085DADA6C}"/>
+    <workbookView xWindow="1440" yWindow="980" windowWidth="26980" windowHeight="16440" xr2:uid="{E284B18C-D04A-B84B-ACD8-66B085DADA6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="12">
   <si>
     <t>N2</t>
-  </si>
-  <si>
-    <t>4mM TA</t>
   </si>
   <si>
     <t>30pct</t>
@@ -70,6 +67,12 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>24hr4mMTA</t>
+  </si>
+  <si>
+    <t>tbh-1</t>
+  </si>
 </sst>
 </file>
 
@@ -78,13 +81,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,952 +434,2095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5585AB6-D4B4-0144-BF32-B15B58B778A2}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G75" sqref="G11:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2.81</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>5.86</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>5.67</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3.69</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2.9</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3.38</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>4.72</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>5.38</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>5.14</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>4.21</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>5.19</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>3.28</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2.72</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>4.3600000000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>4.0199999999999996</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2.9</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>4.09</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>3.55</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2.2200000000000002</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>4.17</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>3.22</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1.82</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2.4900000000000002</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>2.41</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3.18</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>6.48</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>4.95</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>5.24</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>4.76</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>4.0199999999999996</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>3.78</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>4.1500000000000004</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>4.1900000000000004</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>3.39</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>3.68</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>3.19</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2.54</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2.8</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>4.3499999999999996</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>3.39</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>2.88</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>3.92</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>4.21</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1.93</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>3.08</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
-        <v>44539</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>2.5499999999999998</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>44539</v>
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>4.78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>13.07</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>9.34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>6.39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>6.95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>11.87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>7.93</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>11.27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3.63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1.95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5.72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>4.12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>3.04</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1.67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>5.49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3.34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4.99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>12.08</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>5.32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>5.19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>12.86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>16.57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>8.26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>6.46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>8.91</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>3.43</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1.03</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4.12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>7.39</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>9.35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3.69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>5.56</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>4.18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>3.87</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3.63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>2.37</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1.83</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>6.49</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>7.76</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1.93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>5.17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1.17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>6.98</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>6.62</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2.81</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>5.94</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1.68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>6.11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>5.21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>8.81</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>3.15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>45353</v>
       </c>
     </row>
   </sheetData>

--- a/data/tasupplemenationsos.xlsx
+++ b/data/tasupplemenationsos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D35EE0-68C8-4649-BB3A-0B91156F7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635CDEA-5802-A649-AEF0-FC87E850F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="980" windowWidth="26980" windowHeight="16440" xr2:uid="{E284B18C-D04A-B84B-ACD8-66B085DADA6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="13">
   <si>
     <t>N2</t>
   </si>
@@ -68,10 +68,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>24hr4mMTA</t>
+    <t>tbh-1</t>
   </si>
   <si>
-    <t>tbh-1</t>
+    <t>control</t>
+  </si>
+  <si>
+    <t>4mMTA</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5585AB6-D4B4-0144-BF32-B15B58B778A2}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G75" sqref="G11:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -490,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -510,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -550,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -570,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -590,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -610,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -630,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -690,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -710,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -730,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -750,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -790,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -810,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -830,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -870,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -890,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -910,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -930,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1150,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1170,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1190,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1210,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1230,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1250,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1270,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1310,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1370,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1390,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1410,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1430,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1450,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1470,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1490,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1510,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1530,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1550,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1570,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1630,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1650,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1670,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1707,10 +1710,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1727,10 +1730,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1747,10 +1750,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1767,10 +1770,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1787,10 +1790,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1807,10 +1810,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1827,10 +1830,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1847,10 +1850,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1867,10 +1870,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1887,10 +1890,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -1907,10 +1910,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -1927,10 +1930,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -1947,10 +1950,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -1987,10 +1990,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -2007,10 +2010,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -2027,10 +2030,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -2047,10 +2050,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -2070,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -2130,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -2150,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2170,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -2230,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -2250,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -2330,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -2350,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -2410,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2430,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -2450,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -2490,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -2510,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -2522,6 +2525,1286 @@
         <v>2</v>
       </c>
       <c r="F104" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>4.53</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>14.04</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>10.51</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>18.86</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>12.92</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>10.98</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>9.92</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>11.07</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>7.51</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>3.66</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>17.93</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>8.11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>2.13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>6.69</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>19.89</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>12.19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1.99</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>5.55</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1.62</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5.55</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>8.9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>4.01</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1.79</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>11.15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>4.42</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>3.68</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>5.49</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>2.68</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>3.29</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>2.39</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1.8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>5.17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>6.23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>5.29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>7.41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>10.31</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>3.83</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>5.67</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>6.72</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1.78</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>4.99</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>4.54</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>3.51</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>8.24</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>3.29</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>3.58</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>5.08</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>8.58</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>7.06</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>3.36</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>3.82</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>3.58</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>5.93</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>2.93</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>5.32</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>6.48</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>6.63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="1">
         <v>45353</v>
       </c>
     </row>
